--- a/RFTP.xlsx
+++ b/RFTP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsi\Desktop\ESTUDIO\IMF\ENORNOS DE DESARROLLO\Actividad1-CRUD\CRUDArrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6190CC44-39F6-4920-8416-E38E7E4710BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE120A-C156-40DA-B8F9-50FA33563451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>RFTP</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Probar que los datos introducidos son correctos</t>
   </si>
   <si>
-    <t>Barra de consulta</t>
-  </si>
-  <si>
     <t>Mostrar consulta previa</t>
   </si>
   <si>
@@ -114,22 +111,22 @@
     <t>Probar que los datos se guardan correctamente</t>
   </si>
   <si>
-    <t>Probar que se busca correctamente</t>
-  </si>
-  <si>
     <t>Probar que los datos introducidos coinciden con los ya declarados</t>
   </si>
   <si>
-    <t>Probar que funciona mensaje de confirmación de borrado</t>
-  </si>
-  <si>
     <t>Probar que los datos se borran correctamente</t>
   </si>
   <si>
-    <t>Probar que al elegir la opión funciona</t>
-  </si>
-  <si>
     <t>Probar que se muestra correctamente la consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta genérica </t>
+  </si>
+  <si>
+    <t>Consulta específica</t>
+  </si>
+  <si>
+    <t>Probar la consulta de todos los datos que contiene el Array</t>
   </si>
 </sst>
 </file>
@@ -151,12 +148,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Roboto"/>
@@ -171,6 +162,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,11 +193,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,13 +478,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -500,370 +497,342 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="F27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="G32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
+    <row r="33" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A1:H2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/RFTP.xlsx
+++ b/RFTP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsi\Desktop\ESTUDIO\IMF\ENORNOS DE DESARROLLO\Actividad1-CRUD\CRUDArrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE120A-C156-40DA-B8F9-50FA33563451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CE5797-5B92-4AE4-A654-8E839066FE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>RFTP</t>
   </si>
@@ -33,15 +33,9 @@
     <t>T01</t>
   </si>
   <si>
-    <t>Menu interactivo</t>
-  </si>
-  <si>
     <t>T02</t>
   </si>
   <si>
-    <t>Menu informativo</t>
-  </si>
-  <si>
     <t>T03</t>
   </si>
   <si>
@@ -57,48 +51,21 @@
     <t>F03</t>
   </si>
   <si>
-    <t>Modificar pelicula</t>
-  </si>
-  <si>
-    <t>Borrar pelicula</t>
-  </si>
-  <si>
-    <t>Añadir pelicula</t>
-  </si>
-  <si>
-    <t>Opción de consultar película</t>
-  </si>
-  <si>
     <t>Mostrar consulta</t>
   </si>
   <si>
     <t>Salir del programa</t>
   </si>
   <si>
-    <t>Introduccón de datos</t>
-  </si>
-  <si>
     <t>Validación de datos</t>
   </si>
   <si>
-    <t>Elección de datos</t>
-  </si>
-  <si>
-    <t>Introducción de datos nuevos</t>
-  </si>
-  <si>
-    <t>Borrado de datos</t>
-  </si>
-  <si>
     <t>P01</t>
   </si>
   <si>
     <t>P02</t>
   </si>
   <si>
-    <t>Probar que los datos introducidos son correctos</t>
-  </si>
-  <si>
     <t>Mostrar consulta previa</t>
   </si>
   <si>
@@ -111,12 +78,6 @@
     <t>Probar que los datos se guardan correctamente</t>
   </si>
   <si>
-    <t>Probar que los datos introducidos coinciden con los ya declarados</t>
-  </si>
-  <si>
-    <t>Probar que los datos se borran correctamente</t>
-  </si>
-  <si>
     <t>Probar que se muestra correctamente la consulta</t>
   </si>
   <si>
@@ -126,7 +87,100 @@
     <t>Consulta específica</t>
   </si>
   <si>
-    <t>Probar la consulta de todos los datos que contiene el Array</t>
+    <t>Creación de tres Arrays (Nombre, año y valoración)</t>
+  </si>
+  <si>
+    <t>Introducción de datos por teclado</t>
+  </si>
+  <si>
+    <t>Probar introducción de datos con la consola</t>
+  </si>
+  <si>
+    <t>Mostrar Opciones</t>
+  </si>
+  <si>
+    <t>Crear diseño de menú</t>
+  </si>
+  <si>
+    <t>Probar con la consola que se ve correcto</t>
+  </si>
+  <si>
+    <t>Opción crear película</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>Probar que se guardan en las posiciones adecuadas</t>
+  </si>
+  <si>
+    <t>Probar que los datos introducidos están dentro de los parámetros establecidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probar que si da error sale el mensaje </t>
+  </si>
+  <si>
+    <t>Validación de datos nuevos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01 </t>
+  </si>
+  <si>
+    <t>Probar que los datos nuevos introducidos están dentro de los parámetros establecidos</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>Probar que funciona el bucle cuando introduces la letra 's' o 'n'</t>
+  </si>
+  <si>
+    <t>Probar que si introduces una letra diferente sale mensaje de error</t>
+  </si>
+  <si>
+    <t>Opción de volver a introducir una película antes de salir al Menu</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>Probar que los datos introducidos coinciden con los ya existentes en los Arrays</t>
+  </si>
+  <si>
+    <t>Introducción de datos nuevos por teclado</t>
+  </si>
+  <si>
+    <t>Buscar película mediante herramienta consultar película</t>
+  </si>
+  <si>
+    <t>Sustituir dato por el elegido para que parezca un borrado</t>
+  </si>
+  <si>
+    <t>Probar que los datos se sustituyen correctamente</t>
+  </si>
+  <si>
+    <t>Menu interactivo CUD</t>
+  </si>
+  <si>
+    <t>Menu informativo R</t>
+  </si>
+  <si>
+    <t>Opción de consultar</t>
+  </si>
+  <si>
+    <t>Opción borrar película</t>
+  </si>
+  <si>
+    <t>Opción modificar película</t>
+  </si>
+  <si>
+    <t>Recorrer todo el Array y comprobar que se muestra por consola correctamente</t>
+  </si>
+  <si>
+    <t>Recorrer el Array hasta encontrar el dato y comprobar que se muestra por consola correctamente</t>
+  </si>
+  <si>
+    <t>Probar que se introducen datos por teclado</t>
   </si>
 </sst>
 </file>
@@ -147,17 +201,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -166,6 +209,17 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
@@ -193,11 +247,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,361 +532,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="H21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="G22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="G24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="G27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
+      <c r="F29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="G30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="G31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="F47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="3" t="s">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.4" x14ac:dyDescent="0.3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/RFTP.xlsx
+++ b/RFTP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsi\Desktop\ESTUDIO\IMF\ENORNOS DE DESARROLLO\Actividad1-CRUD\CRUDArrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CE5797-5B92-4AE4-A654-8E839066FE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539F8274-234D-4097-8977-80551AC954C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>RFTP</t>
   </si>
@@ -39,9 +39,6 @@
     <t>T03</t>
   </si>
   <si>
-    <t>Exit</t>
-  </si>
-  <si>
     <t>F01</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
     <t>Probar que los datos se sustituyen correctamente</t>
   </si>
   <si>
-    <t>Menu interactivo CUD</t>
-  </si>
-  <si>
-    <t>Menu informativo R</t>
-  </si>
-  <si>
     <t>Opción de consultar</t>
   </si>
   <si>
@@ -181,6 +172,24 @@
   </si>
   <si>
     <t>Probar que se introducen datos por teclado</t>
+  </si>
+  <si>
+    <t>Elegir una opción</t>
+  </si>
+  <si>
+    <t>Probar que funciona la opción de elegir opción</t>
+  </si>
+  <si>
+    <t>Elección de opción Menú</t>
+  </si>
+  <si>
+    <t>Menu CRUD</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
   </si>
 </sst>
 </file>
@@ -247,11 +256,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,416 +541,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="75.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="E5" s="3" t="s">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="F32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E8" s="3" t="s">
+      <c r="D37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G9" s="3" t="s">
+      <c r="F38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E19" s="3" t="s">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="G31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="s">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
